--- a/working_memo.xlsx
+++ b/working_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B86C8-597B-4758-A456-06AFD50A02C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643DAEC-D8A1-44C6-9B6E-FBF8F1DC9D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1590" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,14 @@
   <si>
     <t>老王
 参考资料 ：https://en.wikipedia.org/wiki/NCAA_Division_I_Men%27s_Basketball_Tournament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_information文件做成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +192,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -702,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,48 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -912,6 +884,51 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,366 +1214,374 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="45.125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="5">
         <v>43879</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="24">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="43"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="44">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="30">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="49"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="56">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="42">
         <v>3</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="61"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="36" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="26"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="48">
         <v>0.1</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="55"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="50">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="36">
         <v>4</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="55"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="44">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="30">
         <v>5</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="49"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="67" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="32"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="55"/>
+      <c r="A12" s="7">
+        <v>43880</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="71">
+        <v>1</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="55"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="55"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="55"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="55"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="55"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="55"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="55"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="55"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="55"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="32"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/working_memo.xlsx
+++ b/working_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643DAEC-D8A1-44C6-9B6E-FBF8F1DC9D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC646F-104A-4372-A0F6-A47A1F884D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1590" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,23 @@
   </si>
   <si>
     <t>table_information文件做成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入Feature设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老白，老王
+参照已经的数据情况（table_information），设定投入的数据及预测标的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -707,6 +724,120 @@
         <color rgb="FFFF0000"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -716,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,7 +1059,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,46 +1608,64 @@
       <c r="H11" s="15"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77">
         <v>43880</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="79">
         <v>1</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="41"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="41"/>
+      <c r="A13" s="71">
+        <v>43884</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="73">
+        <v>1</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -1572,16 +1766,27 @@
       <c r="H23" s="36"/>
       <c r="I23" s="41"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="18"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/working_memo.xlsx
+++ b/working_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC646F-104A-4372-A0F6-A47A1F884D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95797691-5033-4642-881B-649693E405EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,25 @@
   <si>
     <t>老白，老王
 参照已经的数据情况（table_information），设定投入的数据及预测标的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建DataMart_laobai_V0.1.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建了所有可能的比赛ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Fin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,48 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,6 +1082,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1390,7 +1412,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1408,46 +1430,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="65" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1460,9 +1482,9 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -1609,42 +1631,42 @@
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
+      <c r="A12" s="63">
         <v>43880</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="65">
         <v>1</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82">
+      <c r="E12" s="67"/>
+      <c r="F12" s="68">
         <v>0.3</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="71">
+      <c r="A13" s="57">
         <v>43884</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="59">
         <v>1</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76">
-        <v>1</v>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="24"/>
@@ -1662,18 +1684,30 @@
       <c r="E14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="A15" s="7">
+        <v>43893</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="87">
+        <v>1</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="H15" s="36"/>
       <c r="I15" s="41"/>

--- a/working_memo.xlsx
+++ b/working_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95797691-5033-4642-881B-649693E405EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD50C28-BB30-4ED1-960E-69C115AFFB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,38 @@
   </si>
   <si>
     <t>Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建DataMart_laobai_V0.2.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加了常规赛和季后赛的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建DataMart_laobai_V0.3.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建DataMart_laobai_V0.4.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计出一个赛季有多长比赛的两只队伍，因为ID为P.k值，需要进行合并后继续后续操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -744,21 +776,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -866,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,9 +1029,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1036,9 +1050,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,39 +1062,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,8 +1140,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,7 +1432,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1430,46 +1450,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="81" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="83"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="78" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1482,9 +1502,9 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="80"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -1616,56 +1636,56 @@
     <row r="11" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63">
+      <c r="A12" s="61">
         <v>43880</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="63">
         <v>1</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68">
+      <c r="E12" s="65"/>
+      <c r="F12" s="66">
         <v>0.3</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="57">
+      <c r="A13" s="5">
         <v>43884</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="57">
         <v>1</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="28"/>
@@ -1675,83 +1695,123 @@
     <row r="14" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61">
         <v>43893</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="63">
         <v>1</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="41"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61">
+        <v>43893</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="63">
+        <v>1</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61">
+        <v>43893</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="63">
+        <v>1</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="66">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="61">
+        <v>43893</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="63">
+        <v>1</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="C19" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="40"/>
       <c r="H19" s="36"/>
       <c r="I19" s="41"/>
@@ -1759,10 +1819,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="40"/>
       <c r="H20" s="36"/>
       <c r="I20" s="41"/>
@@ -1770,10 +1830,10 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="40"/>
       <c r="H21" s="36"/>
       <c r="I21" s="41"/>
@@ -1781,10 +1841,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="40"/>
       <c r="H22" s="36"/>
       <c r="I22" s="41"/>
@@ -1792,10 +1852,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="40"/>
       <c r="H23" s="36"/>
       <c r="I23" s="41"/>
@@ -1803,10 +1863,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="40"/>
       <c r="H24" s="36"/>
       <c r="I24" s="41"/>
@@ -1814,7 +1874,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="23"/>
       <c r="E25" s="21"/>
       <c r="F25" s="16"/>

--- a/working_memo.xlsx
+++ b/working_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD50C28-BB30-4ED1-960E-69C115AFFB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE9F828-7084-4866-922B-8CF35AEB1403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,50 @@
   </si>
   <si>
     <t>统计出一个赛季有多长比赛的两只队伍，因为ID为P.k值，需要进行合并后继续后续操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建DataMart_laobai_V0.5.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建DataMart_laobai_V0.6.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王
+老白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建DataMart_laobai_V0.7.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataMartV1.csv</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +310,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -877,13 +936,24 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,6 +1168,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,14 +1216,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,7 +1523,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1450,46 +1541,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="80" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1502,9 +1593,9 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -1725,7 +1816,7 @@
       <c r="E15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="72" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="67"/>
@@ -1783,7 +1874,7 @@
         <v>43893</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C18" s="63">
         <v>1</v>
@@ -1804,61 +1895,93 @@
     <row r="19" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="41"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>43896</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="57">
+        <v>1</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="73">
+        <v>2</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>43897</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="57">
+        <v>1</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="73">
+        <v>2</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
@@ -1874,7 +1997,7 @@
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="87"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="23"/>
       <c r="E25" s="21"/>
       <c r="F25" s="16"/>
@@ -1883,7 +2006,9 @@
       <c r="I25" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>

--- a/working_memo.xlsx
+++ b/working_memo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kaggle\2020-NCAAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DS_DA_prep\Kaggle\NCCA\2020-NCAAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE9F828-7084-4866-922B-8CF35AEB1403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F263BAC7-1AF6-4545-A0D7-E89063ABDD54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,7 +252,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,22 +260,31 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">老王 </t>
+  </si>
+  <si>
+    <t>Data preparing/Final feature engineering_v0.1/Model selection_v0.1</t>
+  </si>
+  <si>
+    <t>Please Review the comment part on Feature engineering part and provide feedback</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +293,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,7 +301,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -300,13 +309,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +329,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1174,48 +1183,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,18 +1198,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1522,65 +1531,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="82" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="H1" s="91"/>
+      <c r="I1" s="92"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="79"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1593,11 +1602,11 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="85"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="89"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>43879</v>
       </c>
@@ -1620,7 +1629,7 @@
       <c r="H4" s="24"/>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="30">
@@ -1637,7 +1646,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="42">
@@ -1654,7 +1663,7 @@
       <c r="H6" s="42"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -1669,7 +1678,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="36"/>
@@ -1686,7 +1695,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="36">
@@ -1705,7 +1714,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="30">
@@ -1724,7 +1733,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="58.2" thickBot="1">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="52" t="s">
@@ -1741,7 +1750,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" thickBot="1">
       <c r="A12" s="61">
         <v>43880</v>
       </c>
@@ -1762,7 +1771,7 @@
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>43884</v>
       </c>
@@ -1783,7 +1792,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="43.8" thickBot="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="52" t="s">
@@ -1800,7 +1809,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="61">
         <v>43893</v>
       </c>
@@ -1823,7 +1832,7 @@
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" thickBot="1">
       <c r="A16" s="61">
         <v>43893</v>
       </c>
@@ -1846,7 +1855,7 @@
       <c r="H16" s="68"/>
       <c r="I16" s="69"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="61">
         <v>43893</v>
       </c>
@@ -1869,7 +1878,7 @@
       <c r="H17" s="68"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="61">
         <v>43893</v>
       </c>
@@ -1892,26 +1901,26 @@
       <c r="H18" s="68"/>
       <c r="I18" s="69"/>
     </row>
-    <row r="19" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="43.8" thickBot="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" thickBot="1">
       <c r="A20" s="5">
         <v>43896</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="80" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="57">
@@ -1921,16 +1930,16 @@
         <v>46</v>
       </c>
       <c r="E20" s="59"/>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="78" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="24"/>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="13"/>
-      <c r="B21" s="93"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="73">
         <v>2</v>
       </c>
@@ -1945,11 +1954,11 @@
       <c r="H21" s="15"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" thickBot="1">
       <c r="A22" s="5">
         <v>43897</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="80" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="57">
@@ -1959,20 +1968,20 @@
         <v>50</v>
       </c>
       <c r="E22" s="59"/>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="78" t="s">
         <v>49</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="24"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="93"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="73">
         <v>2</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="79" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="54"/>
@@ -1983,18 +1992,28 @@
       <c r="H23" s="15"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+    <row r="24" spans="1:9" ht="28.8">
+      <c r="A24" s="7">
+        <v>43898</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="71">
+        <v>1</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="51"/>
       <c r="G24" s="40"/>
       <c r="H24" s="36"/>
       <c r="I24" s="41"/>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="73"/>
@@ -2007,16 +2026,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
